--- a/raw-data/quantseq2020_key.xlsx
+++ b/raw-data/quantseq2020_key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Bumblebee/QuantSeq-04-21-2020/raw-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Bumblebee/O.lurida_QuantSeq-2020/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D88C86-FB5F-244E-B92A-84EA051A89B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C14C748-A94F-0140-ABD7-A1BC812CA7C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1880" yWindow="-17540" windowWidth="32000" windowHeight="17540" xr2:uid="{97857603-113F-8245-9B62-3D7622E6B461}"/>
+    <workbookView xWindow="-3180" yWindow="-21140" windowWidth="37080" windowHeight="21140" xr2:uid="{97857603-113F-8245-9B62-3D7622E6B461}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Info" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sample Info'!$B$89:$M$107</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="217">
   <si>
     <t>Ostrea lurida</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>larval.sample</t>
+  </si>
+  <si>
+    <t>larval.date.collected</t>
+  </si>
+  <si>
+    <t>week.collected</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -812,6 +818,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1204,235 +1213,235 @@
                   <c:v>2151</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3764</c:v>
+                  <c:v>4133</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>3547</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4021</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4155</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2469</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2968</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>3757</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>3350</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2458</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4155</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3271</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
+                  <c:v>8075</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2387</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3539</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3563</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3782</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3283</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>3749</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>7706</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3782</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3035</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3065</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2712</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3563</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3961</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2715</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2951</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2504</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3961</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3580</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3539</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3799</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2871</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3349</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2895</c:v>
-                </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="101">
+                  <c:v>3023</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3222</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>3270</c:v>
                 </c:pt>
-                <c:pt idx="96">
-                  <c:v>3055</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3547</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1939</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2546</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2498</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>3547</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2830</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2845</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2968</c:v>
-                </c:pt>
                 <c:pt idx="105">
-                  <c:v>3053</c:v>
+                  <c:v>4110</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>2730</c:v>
                 </c:pt>
                 <c:pt idx="107">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3984</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>3447</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="111">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3547</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>3220</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="116">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2588</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3752</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2871</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>2913</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="131">
+                  <c:v>3349</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>3545</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="133">
+                  <c:v>3299</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4097</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3580</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2498</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3764</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7706</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2712</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>2747</c:v>
                 </c:pt>
-                <c:pt idx="112">
-                  <c:v>2556</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>3093</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4133</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2469</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2733</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3144</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3283</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3023</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3299</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>4097</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2434</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3494</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3752</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2387</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>3984</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3222</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2588</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3198</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>4021</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8075</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3161</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3101</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>4011</c:v>
-                </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="145">
                   <c:v>4588</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3181</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>4110</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2770</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2122</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>4608</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2470</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2718</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,235 +1660,235 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.8</c:v>
+                  <c:v>8.66</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>0.52200000000000002</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.86599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4.5199999999999996</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="93">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2.58</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.76</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.16</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="95">
                   <c:v>2.52</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.85799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.58</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.86599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.96799999999999997</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.34</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.02</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.24</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.2799999999999998</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.1800000000000002</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.42</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.22</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.67</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.9</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="107">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>3.06</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="111">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>3.84</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="116">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>2.3199999999999998</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="131">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>6.64</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="133">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>2.02</c:v>
                 </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>5.92</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>8.66</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.42</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3.24</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2.44</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>4.4800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.12</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>5.36</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2.2200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.24</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>9.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>4.66</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="145">
                   <c:v>0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2.02</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>8.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2.42</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,10 +2986,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3002,12 +3011,12 @@
     <col min="15" max="15" width="15.1640625" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="53" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="53" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
@@ -3062,8 +3071,14 @@
       <c r="R1" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3118,8 +3133,14 @@
       <c r="R2" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3174,8 +3195,14 @@
       <c r="R3" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3230,8 +3257,14 @@
       <c r="R4" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3286,8 +3319,14 @@
       <c r="R5" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3342,8 +3381,14 @@
       <c r="R6" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3398,8 +3443,14 @@
       <c r="R7" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -3454,8 +3505,14 @@
       <c r="R8" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -3510,8 +3567,14 @@
       <c r="R9" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3566,8 +3629,14 @@
       <c r="R10" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -3622,8 +3691,14 @@
       <c r="R11" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -3678,8 +3753,14 @@
       <c r="R12" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -3734,8 +3815,14 @@
       <c r="R13" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -3790,8 +3877,14 @@
       <c r="R14" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -3846,8 +3939,14 @@
       <c r="R15" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3902,8 +4001,14 @@
       <c r="R16" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -3958,8 +4063,14 @@
       <c r="R17" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -4014,8 +4125,14 @@
       <c r="R18" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -4070,8 +4187,14 @@
       <c r="R19" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -4126,8 +4249,14 @@
       <c r="R20" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -4182,8 +4311,14 @@
       <c r="R21" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -4238,8 +4373,14 @@
       <c r="R22" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -4294,8 +4435,14 @@
       <c r="R23" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -4350,8 +4497,14 @@
       <c r="R24" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -4406,8 +4559,14 @@
       <c r="R25" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -4462,8 +4621,14 @@
       <c r="R26" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -4518,8 +4683,14 @@
       <c r="R27" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -4574,8 +4745,14 @@
       <c r="R28" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -4630,8 +4807,14 @@
       <c r="R29" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -4686,8 +4869,14 @@
       <c r="R30" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -4742,8 +4931,14 @@
       <c r="R31" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -4798,8 +4993,14 @@
       <c r="R32" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -4854,8 +5055,14 @@
       <c r="R33" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -4910,8 +5117,14 @@
       <c r="R34" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -4966,8 +5179,14 @@
       <c r="R35" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -5022,8 +5241,14 @@
       <c r="R36" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -5078,8 +5303,14 @@
       <c r="R37" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -5134,8 +5365,14 @@
       <c r="R38" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -5190,8 +5427,14 @@
       <c r="R39" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -5246,8 +5489,14 @@
       <c r="R40" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -5302,8 +5551,14 @@
       <c r="R41" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -5358,8 +5613,14 @@
       <c r="R42" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -5414,8 +5675,14 @@
       <c r="R43" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -5470,8 +5737,14 @@
       <c r="R44" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -5526,8 +5799,14 @@
       <c r="R45" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -5582,8 +5861,14 @@
       <c r="R46" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -5638,8 +5923,14 @@
       <c r="R47" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -5694,8 +5985,14 @@
       <c r="R48" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -5750,8 +6047,14 @@
       <c r="R49" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -5806,8 +6109,14 @@
       <c r="R50" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -5862,8 +6171,14 @@
       <c r="R51" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -5918,8 +6233,14 @@
       <c r="R52" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -5974,8 +6295,14 @@
       <c r="R53" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -6030,8 +6357,14 @@
       <c r="R54" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -6086,8 +6419,14 @@
       <c r="R55" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -6142,8 +6481,14 @@
       <c r="R56" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S56" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A57" s="3">
         <v>1</v>
       </c>
@@ -6198,8 +6543,14 @@
       <c r="R57" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -6254,8 +6605,14 @@
       <c r="R58" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -6310,8 +6667,14 @@
       <c r="R59" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -6366,8 +6729,14 @@
       <c r="R60" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -6422,8 +6791,14 @@
       <c r="R61" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -6478,8 +6853,14 @@
       <c r="R62" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S62" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -6534,8 +6915,14 @@
       <c r="R63" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="3" customFormat="1" ht="17">
       <c r="A64" s="3">
         <v>1</v>
       </c>
@@ -6590,8 +6977,14 @@
       <c r="R64" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S64" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" s="3" customFormat="1" ht="17">
       <c r="A65" s="3">
         <v>1</v>
       </c>
@@ -6646,8 +7039,14 @@
       <c r="R65" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" s="3" customFormat="1" ht="17">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -6702,8 +7101,14 @@
       <c r="R66" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" s="3" customFormat="1" ht="17">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -6758,8 +7163,14 @@
       <c r="R67" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" s="3" customFormat="1" ht="17">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -6814,8 +7225,14 @@
       <c r="R68" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="3" customFormat="1" ht="17">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -6870,8 +7287,14 @@
       <c r="R69" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" s="3" customFormat="1" ht="17">
+      <c r="S69" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" s="3" customFormat="1" ht="17">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -6926,22 +7349,28 @@
       <c r="R70" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="S70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A71" s="12">
         <v>2</v>
       </c>
       <c r="B71" s="13">
-        <v>34</v>
+        <v>521</v>
       </c>
       <c r="C71" s="14">
-        <v>104</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D71" s="12">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="E71" s="15">
-        <v>3764</v>
+        <v>4133</v>
       </c>
       <c r="F71" s="16">
         <v>19</v>
@@ -6959,16 +7388,16 @@
         <v>78</v>
       </c>
       <c r="K71" s="16">
-        <v>3.8</v>
+        <v>8.66</v>
       </c>
       <c r="L71" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M71" s="12">
-        <v>7073</v>
+        <v>7071</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="O71" s="12" t="s">
         <v>24</v>
@@ -6977,30 +7406,37 @@
         <v>6</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R71" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>5</v>
+      </c>
+      <c r="R71" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="S71" s="21">
+        <v>42876</v>
+      </c>
+      <c r="T71" s="12">
+        <v>1</v>
+      </c>
+      <c r="V71" s="21"/>
+    </row>
+    <row r="72" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A72" s="12">
         <v>2</v>
       </c>
       <c r="B72" s="13">
-        <v>35</v>
+        <v>481</v>
       </c>
       <c r="C72" s="14">
-        <v>94.4</v>
+        <v>89.2</v>
       </c>
       <c r="D72" s="12">
         <v>350</v>
       </c>
       <c r="E72" s="15">
-        <v>3757</v>
+        <v>3547</v>
       </c>
       <c r="F72" s="16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>208</v>
@@ -7015,51 +7451,58 @@
         <v>78</v>
       </c>
       <c r="K72" s="16">
-        <v>0.52200000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L72" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="12">
-        <v>7075</v>
+        <v>7036</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="O72" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P72" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q72" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R72" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R72" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="S72" s="21">
+        <v>42875</v>
+      </c>
+      <c r="T72" s="12">
+        <v>1</v>
+      </c>
+      <c r="V72" s="21"/>
+    </row>
+    <row r="73" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A73" s="12">
         <v>2</v>
       </c>
-      <c r="B73" s="13">
-        <v>37</v>
-      </c>
-      <c r="C73" s="14">
-        <v>74.599999999999994</v>
+      <c r="B73" s="12">
+        <v>483</v>
+      </c>
+      <c r="C73" s="18">
+        <v>99</v>
       </c>
       <c r="D73" s="12">
         <v>350</v>
       </c>
-      <c r="E73" s="15">
-        <v>3350</v>
-      </c>
-      <c r="F73" s="16">
-        <v>21</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>208</v>
+      <c r="E73" s="19">
+        <v>2845</v>
+      </c>
+      <c r="F73" s="12">
+        <v>16</v>
+      </c>
+      <c r="G73" s="16">
+        <v>5</v>
       </c>
       <c r="H73" s="16" t="s">
         <v>0</v>
@@ -7070,52 +7513,59 @@
       <c r="J73" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K73" s="16">
-        <v>5.46</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>2</v>
+      <c r="K73" s="12">
+        <v>1.22</v>
+      </c>
+      <c r="L73" s="12">
+        <v>219</v>
       </c>
       <c r="M73" s="12">
-        <v>7076</v>
+        <v>7009</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="O73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P73" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q73" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R73" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R73" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S73" s="21">
+        <v>42876</v>
+      </c>
+      <c r="T73" s="12">
+        <v>1</v>
+      </c>
+      <c r="V73" s="21"/>
+    </row>
+    <row r="74" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A74" s="12">
         <v>2</v>
       </c>
       <c r="B74" s="12">
-        <v>39</v>
+        <v>482</v>
       </c>
       <c r="C74" s="18">
-        <v>89.8</v>
+        <v>22.2</v>
       </c>
       <c r="D74" s="12">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c r="E74" s="19">
-        <v>2458</v>
+        <v>2830</v>
       </c>
       <c r="F74" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H74" s="16" t="s">
         <v>0</v>
@@ -7127,48 +7577,55 @@
         <v>78</v>
       </c>
       <c r="K74" s="12">
-        <v>2.04</v>
+        <v>1.42</v>
       </c>
       <c r="L74" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M74" s="12">
-        <v>7056</v>
+        <v>7027</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="O74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P74" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R74" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R74" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S74" s="21">
+        <v>42875</v>
+      </c>
+      <c r="T74" s="12">
+        <v>1</v>
+      </c>
+      <c r="V74" s="21"/>
+    </row>
+    <row r="75" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A75" s="12">
         <v>2</v>
       </c>
       <c r="B75" s="13">
-        <v>41</v>
+        <v>561</v>
       </c>
       <c r="C75" s="14">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D75" s="12">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="E75" s="15">
-        <v>4155</v>
+        <v>4021</v>
       </c>
       <c r="F75" s="16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>208</v>
@@ -7183,51 +7640,58 @@
         <v>78</v>
       </c>
       <c r="K75" s="16">
-        <v>6.82</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L75" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M75" s="12">
-        <v>7068</v>
+        <v>7066</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P75" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q75" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R75" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R75" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="S75" s="21">
+        <v>42876</v>
+      </c>
+      <c r="T75" s="12">
+        <v>1</v>
+      </c>
+      <c r="V75" s="21"/>
+    </row>
+    <row r="76" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A76" s="12">
         <v>2</v>
       </c>
-      <c r="B76" s="12">
-        <v>43</v>
-      </c>
-      <c r="C76" s="18">
-        <v>156</v>
+      <c r="B76" s="13">
+        <v>41</v>
+      </c>
+      <c r="C76" s="14">
+        <v>108</v>
       </c>
       <c r="D76" s="12">
         <v>350</v>
       </c>
-      <c r="E76" s="19">
-        <v>3271</v>
-      </c>
-      <c r="F76" s="12">
-        <v>15</v>
-      </c>
-      <c r="G76" s="16">
-        <v>4</v>
+      <c r="E76" s="15">
+        <v>4155</v>
+      </c>
+      <c r="F76" s="16">
+        <v>19</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H76" s="16" t="s">
         <v>0</v>
@@ -7238,17 +7702,17 @@
       <c r="J76" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K76" s="12">
-        <v>2.48</v>
-      </c>
-      <c r="L76" s="12">
-        <v>261</v>
+      <c r="K76" s="16">
+        <v>6.82</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M76" s="12">
-        <v>7050</v>
+        <v>7068</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="O76" s="12" t="s">
         <v>24</v>
@@ -7260,30 +7724,37 @@
         <v>5</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>88</v>
+      </c>
+      <c r="S76" s="21">
+        <v>42876</v>
+      </c>
+      <c r="T76" s="12">
+        <v>1</v>
+      </c>
+      <c r="V76" s="21"/>
+    </row>
+    <row r="77" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A77" s="12">
         <v>2</v>
       </c>
-      <c r="B77" s="13">
-        <v>44</v>
-      </c>
-      <c r="C77" s="14">
-        <v>41.4</v>
+      <c r="B77" s="12">
+        <v>522</v>
+      </c>
+      <c r="C77" s="18">
+        <v>32.200000000000003</v>
       </c>
       <c r="D77" s="12">
-        <v>207</v>
-      </c>
-      <c r="E77" s="15">
-        <v>3749</v>
-      </c>
-      <c r="F77" s="16">
-        <v>21</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>208</v>
+        <v>161</v>
+      </c>
+      <c r="E77" s="19">
+        <v>2469</v>
+      </c>
+      <c r="F77" s="12">
+        <v>16</v>
+      </c>
+      <c r="G77" s="16">
+        <v>3</v>
       </c>
       <c r="H77" s="16" t="s">
         <v>0</v>
@@ -7294,52 +7765,58 @@
       <c r="J77" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K77" s="16">
-        <v>0.18</v>
+      <c r="K77" s="12">
+        <v>2.42</v>
       </c>
       <c r="L77" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M77" s="12">
-        <v>7078</v>
+        <v>7002</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="O77" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P77" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q77" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R77" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R77" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="S77" s="21">
+        <v>42877</v>
+      </c>
+      <c r="T77" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A78" s="12">
         <v>2</v>
       </c>
       <c r="B78" s="12">
-        <v>45</v>
-      </c>
-      <c r="C78" s="12">
-        <v>25.1</v>
+        <v>43</v>
+      </c>
+      <c r="C78" s="18">
+        <v>156</v>
       </c>
       <c r="D78" s="12">
-        <v>125.5</v>
+        <v>350</v>
       </c>
       <c r="E78" s="19">
-        <v>7706</v>
-      </c>
-      <c r="F78" s="16">
-        <v>19</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>208</v>
+        <v>3271</v>
+      </c>
+      <c r="F78" s="12">
+        <v>15</v>
+      </c>
+      <c r="G78" s="16">
+        <v>4</v>
       </c>
       <c r="H78" s="16" t="s">
         <v>0</v>
@@ -7350,17 +7827,17 @@
       <c r="J78" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K78" s="16">
-        <v>4.8</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>2</v>
+      <c r="K78" s="12">
+        <v>2.48</v>
+      </c>
+      <c r="L78" s="12">
+        <v>261</v>
       </c>
       <c r="M78" s="12">
-        <v>7077</v>
+        <v>7050</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="O78" s="12" t="s">
         <v>24</v>
@@ -7372,30 +7849,36 @@
         <v>5</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>89</v>
+      </c>
+      <c r="S78" s="21">
+        <v>42878</v>
+      </c>
+      <c r="T78" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A79" s="12">
         <v>2</v>
       </c>
-      <c r="B79" s="13">
-        <v>46</v>
-      </c>
-      <c r="C79" s="14">
-        <v>98.6</v>
+      <c r="B79" s="12">
+        <v>484</v>
+      </c>
+      <c r="C79" s="18">
+        <v>58.4</v>
       </c>
       <c r="D79" s="12">
-        <v>350</v>
-      </c>
-      <c r="E79" s="15">
-        <v>3782</v>
-      </c>
-      <c r="F79" s="16">
-        <v>19</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>208</v>
+        <v>292</v>
+      </c>
+      <c r="E79" s="19">
+        <v>2968</v>
+      </c>
+      <c r="F79" s="12">
+        <v>15</v>
+      </c>
+      <c r="G79" s="16">
+        <v>4</v>
       </c>
       <c r="H79" s="16" t="s">
         <v>0</v>
@@ -7406,17 +7889,17 @@
       <c r="J79" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K79" s="16">
-        <v>4.5199999999999996</v>
+      <c r="K79" s="12">
+        <v>1.67</v>
       </c>
       <c r="L79" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M79" s="12">
-        <v>7074</v>
+        <v>7047</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="O79" s="12" t="s">
         <v>24</v>
@@ -7425,30 +7908,36 @@
         <v>10</v>
       </c>
       <c r="Q79" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R79" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>14</v>
+      </c>
+      <c r="R79" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="S79" s="21">
+        <v>42878</v>
+      </c>
+      <c r="T79" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" s="12" customFormat="1" ht="17">
       <c r="A80" s="12">
         <v>2</v>
       </c>
       <c r="B80" s="13">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C80" s="14">
-        <v>128</v>
+        <v>94.4</v>
       </c>
       <c r="D80" s="12">
         <v>350</v>
       </c>
       <c r="E80" s="15">
-        <v>3035</v>
+        <v>3757</v>
       </c>
       <c r="F80" s="16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>208</v>
@@ -7463,51 +7952,57 @@
         <v>78</v>
       </c>
       <c r="K80" s="16">
-        <v>2.58</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="L80" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M80" s="12">
-        <v>7070</v>
+        <v>7075</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P80" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q80" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>82</v>
+      </c>
+      <c r="S80" s="21">
+        <v>42878</v>
+      </c>
+      <c r="T80" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A81" s="12">
         <v>2</v>
       </c>
       <c r="B81" s="12">
-        <v>401</v>
-      </c>
-      <c r="C81" s="18">
-        <v>93.4</v>
+        <v>562</v>
+      </c>
+      <c r="C81" s="12">
+        <v>126</v>
       </c>
       <c r="D81" s="12">
         <v>350</v>
       </c>
       <c r="E81" s="19">
-        <v>394</v>
-      </c>
-      <c r="F81" s="12">
-        <v>16</v>
-      </c>
-      <c r="G81" s="16">
-        <v>5</v>
+        <v>8075</v>
+      </c>
+      <c r="F81" s="16">
+        <v>23</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>0</v>
@@ -7518,52 +8013,58 @@
       <c r="J81" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K81" s="12">
-        <v>1.24</v>
-      </c>
-      <c r="L81" s="12">
-        <v>325</v>
+      <c r="K81" s="16">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M81" s="12">
-        <v>7012</v>
+        <v>7064</v>
       </c>
       <c r="N81" s="17" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="P81" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R81" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>164</v>
+      </c>
+      <c r="S81" s="21">
+        <v>42878</v>
+      </c>
+      <c r="T81" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A82" s="12">
         <v>2</v>
       </c>
       <c r="B82" s="12">
-        <v>402</v>
+        <v>541</v>
       </c>
       <c r="C82" s="18">
-        <v>114</v>
+        <v>44.4</v>
       </c>
       <c r="D82" s="12">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="E82" s="19">
-        <v>3246</v>
+        <v>2387</v>
       </c>
       <c r="F82" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" s="16" t="s">
         <v>0</v>
@@ -7575,51 +8076,57 @@
         <v>78</v>
       </c>
       <c r="K82" s="12">
-        <v>2.76</v>
-      </c>
-      <c r="L82" s="12">
-        <v>346</v>
+        <v>1.4</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M82" s="12">
-        <v>7006</v>
+        <v>7044</v>
       </c>
       <c r="N82" s="17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="P82" s="12">
         <v>10</v>
       </c>
       <c r="Q82" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R82" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>155</v>
+      </c>
+      <c r="S82" s="21">
+        <v>42878</v>
+      </c>
+      <c r="T82" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A83" s="12">
         <v>2</v>
       </c>
       <c r="B83" s="12">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="C83" s="18">
-        <v>136</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D83" s="12">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="E83" s="19">
-        <v>3065</v>
+        <v>2999</v>
       </c>
       <c r="F83" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G83" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83" s="16" t="s">
         <v>0</v>
@@ -7631,51 +8138,57 @@
         <v>78</v>
       </c>
       <c r="K83" s="12">
-        <v>4.16</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>2</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L83" s="12">
+        <v>270</v>
       </c>
       <c r="M83" s="12">
-        <v>7032</v>
+        <v>7004</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="P83" s="12">
         <v>10</v>
       </c>
       <c r="Q83" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R83" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>156</v>
+      </c>
+      <c r="S83" s="21">
+        <v>42879</v>
+      </c>
+      <c r="T83" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A84" s="12">
         <v>2</v>
       </c>
       <c r="B84" s="12">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C84" s="18">
-        <v>112</v>
+        <v>93.4</v>
       </c>
       <c r="D84" s="12">
         <v>350</v>
       </c>
       <c r="E84" s="19">
-        <v>2712</v>
+        <v>394</v>
       </c>
       <c r="F84" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G84" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H84" s="16" t="s">
         <v>0</v>
@@ -7687,16 +8200,16 @@
         <v>78</v>
       </c>
       <c r="K84" s="12">
-        <v>2.92</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>2</v>
+        <v>1.24</v>
+      </c>
+      <c r="L84" s="12">
+        <v>325</v>
       </c>
       <c r="M84" s="12">
-        <v>7046</v>
+        <v>7012</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="O84" s="12" t="s">
         <v>4</v>
@@ -7708,30 +8221,36 @@
         <v>14</v>
       </c>
       <c r="R84" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>98</v>
+      </c>
+      <c r="S84" s="21">
+        <v>42879</v>
+      </c>
+      <c r="T84" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A85" s="12">
         <v>2</v>
       </c>
-      <c r="B85" s="12">
-        <v>411</v>
-      </c>
-      <c r="C85" s="18">
-        <v>72.599999999999994</v>
+      <c r="B85" s="13">
+        <v>563</v>
+      </c>
+      <c r="C85" s="14">
+        <v>47</v>
       </c>
       <c r="D85" s="12">
-        <v>350</v>
-      </c>
-      <c r="E85" s="19">
-        <v>3563</v>
-      </c>
-      <c r="F85" s="12">
+        <v>235</v>
+      </c>
+      <c r="E85" s="15">
+        <v>3161</v>
+      </c>
+      <c r="F85" s="16">
         <v>16</v>
       </c>
-      <c r="G85" s="16">
-        <v>5</v>
+      <c r="G85" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>0</v>
@@ -7742,52 +8261,58 @@
       <c r="J85" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K85" s="12">
-        <v>3.08</v>
-      </c>
-      <c r="L85" s="12">
-        <v>288</v>
+      <c r="K85" s="16">
+        <v>4.66</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M85" s="12">
-        <v>7011</v>
+        <v>7045</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="P85" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q85" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R85" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>165</v>
+      </c>
+      <c r="S85" s="21">
+        <v>42879</v>
+      </c>
+      <c r="T85" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A86" s="12">
         <v>2</v>
       </c>
-      <c r="B86" s="13">
-        <v>412</v>
-      </c>
-      <c r="C86" s="14">
-        <v>31.2</v>
+      <c r="B86" s="12">
+        <v>451</v>
+      </c>
+      <c r="C86" s="18">
+        <v>68.400000000000006</v>
       </c>
       <c r="D86" s="12">
-        <v>156</v>
-      </c>
-      <c r="E86" s="15">
-        <v>3961</v>
-      </c>
-      <c r="F86" s="16">
-        <v>23</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>208</v>
+        <v>350</v>
+      </c>
+      <c r="E86" s="19">
+        <v>2895</v>
+      </c>
+      <c r="F86" s="12">
+        <v>14</v>
+      </c>
+      <c r="G86" s="16">
+        <v>5</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>0</v>
@@ -7798,20 +8323,20 @@
       <c r="J86" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K86" s="16">
-        <v>2.52</v>
+      <c r="K86" s="12">
+        <v>2.2400000000000002</v>
       </c>
       <c r="L86" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M86" s="12">
-        <v>7069</v>
+        <v>7030</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="P86" s="12">
         <v>10</v>
@@ -7820,30 +8345,36 @@
         <v>5</v>
       </c>
       <c r="R86" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>117</v>
+      </c>
+      <c r="S86" s="21">
+        <v>42879</v>
+      </c>
+      <c r="T86" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A87" s="12">
         <v>2</v>
       </c>
       <c r="B87" s="12">
-        <v>413</v>
+        <v>531</v>
       </c>
       <c r="C87" s="18">
-        <v>130</v>
+        <v>95.4</v>
       </c>
       <c r="D87" s="12">
         <v>350</v>
       </c>
       <c r="E87" s="19">
-        <v>2715</v>
+        <v>2434</v>
       </c>
       <c r="F87" s="12">
         <v>15</v>
       </c>
       <c r="G87" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="16" t="s">
         <v>0</v>
@@ -7855,51 +8386,57 @@
         <v>78</v>
       </c>
       <c r="K87" s="12">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="L87" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M87" s="12">
-        <v>7041</v>
+        <v>7048</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="P87" s="12">
         <v>10</v>
       </c>
       <c r="Q87" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R87" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>151</v>
+      </c>
+      <c r="S87" s="21">
+        <v>42879</v>
+      </c>
+      <c r="T87" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A88" s="12">
         <v>2</v>
       </c>
-      <c r="B88" s="12">
-        <v>414</v>
+      <c r="B88" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C88" s="18">
-        <v>168</v>
+        <v>97.2</v>
       </c>
       <c r="D88" s="12">
         <v>350</v>
       </c>
       <c r="E88" s="19">
-        <v>2951</v>
+        <v>2770</v>
       </c>
       <c r="F88" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G88" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H88" s="16" t="s">
         <v>0</v>
@@ -7911,19 +8448,19 @@
         <v>78</v>
       </c>
       <c r="K88" s="12">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>2</v>
+        <v>2.68</v>
+      </c>
+      <c r="L88" s="12">
+        <v>294</v>
       </c>
       <c r="M88" s="12">
-        <v>7053</v>
+        <v>7003</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="P88" s="12">
         <v>10</v>
@@ -7932,30 +8469,36 @@
         <v>5</v>
       </c>
       <c r="R88" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>179</v>
+      </c>
+      <c r="S88" s="21">
+        <v>42879</v>
+      </c>
+      <c r="T88" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A89" s="12">
         <v>2</v>
       </c>
-      <c r="B89" s="12">
-        <v>421</v>
+      <c r="B89" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C89" s="18">
-        <v>57.6</v>
+        <v>108</v>
       </c>
       <c r="D89" s="12">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="E89" s="19">
-        <v>2504</v>
+        <v>2470</v>
       </c>
       <c r="F89" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H89" s="16" t="s">
         <v>0</v>
@@ -7967,45 +8510,51 @@
         <v>78</v>
       </c>
       <c r="K89" s="12">
-        <v>1.63</v>
+        <v>5.2</v>
       </c>
       <c r="L89" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M89" s="12">
-        <v>7024</v>
+        <v>7055</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="P89" s="12">
         <v>6</v>
       </c>
       <c r="Q89" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R89" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>186</v>
+      </c>
+      <c r="S89" s="21">
+        <v>42880</v>
+      </c>
+      <c r="T89" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A90" s="12">
         <v>2</v>
       </c>
       <c r="B90" s="13">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C90" s="14">
-        <v>74</v>
+        <v>16.2</v>
       </c>
       <c r="D90" s="12">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="E90" s="15">
-        <v>3961</v>
+        <v>3539</v>
       </c>
       <c r="F90" s="16">
         <v>23</v>
@@ -8023,45 +8572,51 @@
         <v>78</v>
       </c>
       <c r="K90" s="16">
-        <v>6.28</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="L90" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M90" s="12">
-        <v>7065</v>
+        <v>7061</v>
       </c>
       <c r="N90" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O90" s="12" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="P90" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>113</v>
+      </c>
+      <c r="S90" s="21">
+        <v>42880</v>
+      </c>
+      <c r="T90" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A91" s="12">
         <v>2</v>
       </c>
-      <c r="B91" s="12">
-        <v>434</v>
+      <c r="B91" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C91" s="18">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="D91" s="12">
         <v>350</v>
       </c>
       <c r="E91" s="19">
-        <v>3580</v>
+        <v>2718</v>
       </c>
       <c r="F91" s="12">
         <v>15</v>
@@ -8079,19 +8634,19 @@
         <v>78</v>
       </c>
       <c r="K91" s="12">
-        <v>5.58</v>
+        <v>2.42</v>
       </c>
       <c r="L91" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M91" s="12">
-        <v>7059</v>
+        <v>7052</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="P91" s="12">
         <v>6</v>
@@ -8099,31 +8654,37 @@
       <c r="Q91" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R91" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="S91" s="21">
+        <v>42881</v>
+      </c>
+      <c r="T91" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A92" s="12">
         <v>2</v>
       </c>
-      <c r="B92" s="13">
-        <v>441</v>
-      </c>
-      <c r="C92" s="14">
-        <v>16.2</v>
+      <c r="B92" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="18">
+        <v>84</v>
       </c>
       <c r="D92" s="12">
-        <v>81</v>
-      </c>
-      <c r="E92" s="15">
-        <v>3539</v>
-      </c>
-      <c r="F92" s="16">
-        <v>23</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>208</v>
+        <v>350</v>
+      </c>
+      <c r="E92" s="19">
+        <v>2122</v>
+      </c>
+      <c r="F92" s="12">
+        <v>14</v>
+      </c>
+      <c r="G92" s="16">
+        <v>5</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>0</v>
@@ -8134,52 +8695,58 @@
       <c r="J92" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K92" s="16">
-        <v>0.86599999999999999</v>
+      <c r="K92" s="12">
+        <v>2.02</v>
       </c>
       <c r="L92" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M92" s="12">
-        <v>7061</v>
+        <v>7033</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="O92" s="12" t="s">
         <v>43</v>
       </c>
       <c r="P92" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q92" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R92" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R92" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="S92" s="21">
+        <v>42881</v>
+      </c>
+      <c r="T92" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A93" s="12">
         <v>2</v>
       </c>
       <c r="B93" s="12">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="C93" s="18">
-        <v>60.2</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="D93" s="12">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="E93" s="19">
-        <v>3799</v>
+        <v>3563</v>
       </c>
       <c r="F93" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G93" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H93" s="16" t="s">
         <v>0</v>
@@ -8191,51 +8758,57 @@
         <v>78</v>
       </c>
       <c r="K93" s="12">
-        <v>1.36</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>2</v>
+        <v>3.08</v>
+      </c>
+      <c r="L93" s="12">
+        <v>288</v>
       </c>
       <c r="M93" s="12">
-        <v>7039</v>
+        <v>7011</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="P93" s="12">
         <v>10</v>
       </c>
       <c r="Q93" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R93" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>102</v>
+      </c>
+      <c r="S93" s="21">
+        <v>42881</v>
+      </c>
+      <c r="T93" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A94" s="12">
         <v>2</v>
       </c>
-      <c r="B94" s="12">
-        <v>444</v>
-      </c>
-      <c r="C94" s="18">
-        <v>70.599999999999994</v>
+      <c r="B94" s="13">
+        <v>46</v>
+      </c>
+      <c r="C94" s="14">
+        <v>98.6</v>
       </c>
       <c r="D94" s="12">
         <v>350</v>
       </c>
-      <c r="E94" s="19">
-        <v>2871</v>
-      </c>
-      <c r="F94" s="12">
-        <v>14</v>
-      </c>
-      <c r="G94" s="16">
-        <v>5</v>
+      <c r="E94" s="15">
+        <v>3782</v>
+      </c>
+      <c r="F94" s="16">
+        <v>19</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H94" s="16" t="s">
         <v>0</v>
@@ -8246,49 +8819,55 @@
       <c r="J94" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K94" s="12">
-        <v>4.08</v>
+      <c r="K94" s="16">
+        <v>4.5199999999999996</v>
       </c>
       <c r="L94" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M94" s="12">
-        <v>7037</v>
+        <v>7074</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P94" s="12">
         <v>10</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R94" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>5</v>
+      </c>
+      <c r="R94" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="S94" s="21">
+        <v>42881</v>
+      </c>
+      <c r="T94" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A95" s="12">
         <v>2</v>
       </c>
       <c r="B95" s="12">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="C95" s="18">
-        <v>160</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="D95" s="12">
         <v>350</v>
       </c>
       <c r="E95" s="19">
-        <v>3349</v>
+        <v>2733</v>
       </c>
       <c r="F95" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G95" s="16">
         <v>4</v>
@@ -8303,51 +8882,57 @@
         <v>78</v>
       </c>
       <c r="K95" s="12">
-        <v>4</v>
-      </c>
-      <c r="L95" s="12" t="s">
-        <v>2</v>
+        <v>2.16</v>
+      </c>
+      <c r="L95" s="12">
+        <v>276</v>
       </c>
       <c r="M95" s="12">
-        <v>7049</v>
+        <v>7005</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P95" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q95" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R95" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>142</v>
+      </c>
+      <c r="S95" s="21">
+        <v>42882</v>
+      </c>
+      <c r="T95" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A96" s="12">
         <v>2</v>
       </c>
-      <c r="B96" s="12">
-        <v>451</v>
-      </c>
-      <c r="C96" s="18">
-        <v>68.400000000000006</v>
+      <c r="B96" s="13">
+        <v>47</v>
+      </c>
+      <c r="C96" s="14">
+        <v>128</v>
       </c>
       <c r="D96" s="12">
         <v>350</v>
       </c>
-      <c r="E96" s="19">
-        <v>2895</v>
-      </c>
-      <c r="F96" s="12">
-        <v>14</v>
-      </c>
-      <c r="G96" s="16">
-        <v>5</v>
+      <c r="E96" s="15">
+        <v>3035</v>
+      </c>
+      <c r="F96" s="16">
+        <v>16</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H96" s="16" t="s">
         <v>0</v>
@@ -8358,20 +8943,20 @@
       <c r="J96" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K96" s="12">
-        <v>2.2400000000000002</v>
+      <c r="K96" s="16">
+        <v>2.58</v>
       </c>
       <c r="L96" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="12">
-        <v>7030</v>
+        <v>7070</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P96" s="12">
         <v>10</v>
@@ -8379,31 +8964,37 @@
       <c r="Q96" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R96" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R96" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S96" s="21">
+        <v>42882</v>
+      </c>
+      <c r="T96" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A97" s="12">
         <v>2</v>
       </c>
-      <c r="B97" s="12">
-        <v>453</v>
-      </c>
-      <c r="C97" s="18">
-        <v>196</v>
+      <c r="B97" s="13">
+        <v>412</v>
+      </c>
+      <c r="C97" s="14">
+        <v>31.2</v>
       </c>
       <c r="D97" s="12">
-        <v>350</v>
-      </c>
-      <c r="E97" s="19">
-        <v>3270</v>
-      </c>
-      <c r="F97" s="12">
-        <v>14</v>
-      </c>
-      <c r="G97" s="16">
-        <v>3</v>
+        <v>156</v>
+      </c>
+      <c r="E97" s="15">
+        <v>3961</v>
+      </c>
+      <c r="F97" s="16">
+        <v>23</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>0</v>
@@ -8414,20 +9005,20 @@
       <c r="J97" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K97" s="12">
-        <v>0.96799999999999997</v>
+      <c r="K97" s="16">
+        <v>2.52</v>
       </c>
       <c r="L97" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M97" s="12">
-        <v>7014</v>
+        <v>7069</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="P97" s="12">
         <v>10</v>
@@ -8436,30 +9027,36 @@
         <v>5</v>
       </c>
       <c r="R97" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>104</v>
+      </c>
+      <c r="S97" s="21">
+        <v>42882</v>
+      </c>
+      <c r="T97" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A98" s="12">
         <v>2</v>
       </c>
       <c r="B98" s="12">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="C98" s="18">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="D98" s="12">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="E98" s="19">
-        <v>3055</v>
+        <v>3144</v>
       </c>
       <c r="F98" s="12">
         <v>14</v>
       </c>
       <c r="G98" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>0</v>
@@ -8471,19 +9068,19 @@
         <v>78</v>
       </c>
       <c r="K98" s="12">
-        <v>2.34</v>
+        <v>3.24</v>
       </c>
       <c r="L98" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M98" s="12">
-        <v>7022</v>
+        <v>7013</v>
       </c>
       <c r="N98" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O98" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P98" s="12">
         <v>6</v>
@@ -8492,30 +9089,36 @@
         <v>5</v>
       </c>
       <c r="R98" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>143</v>
+      </c>
+      <c r="S98" s="21">
+        <v>42882</v>
+      </c>
+      <c r="T98" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A99" s="12">
         <v>2</v>
       </c>
-      <c r="B99" s="12">
-        <v>474</v>
-      </c>
-      <c r="C99" s="18">
-        <v>77.2</v>
+      <c r="B99" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="12">
+        <v>106</v>
       </c>
       <c r="D99" s="12">
         <v>350</v>
       </c>
       <c r="E99" s="19">
-        <v>3547</v>
-      </c>
-      <c r="F99" s="12">
-        <v>14</v>
-      </c>
-      <c r="G99" s="16">
-        <v>3</v>
+        <v>4608</v>
+      </c>
+      <c r="F99" s="16">
+        <v>19</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>0</v>
@@ -8526,17 +9129,17 @@
       <c r="J99" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K99" s="12">
-        <v>3.02</v>
+      <c r="K99" s="16">
+        <v>8.4600000000000009</v>
       </c>
       <c r="L99" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M99" s="12">
-        <v>7016</v>
+        <v>7001</v>
       </c>
       <c r="N99" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O99" s="12" t="s">
         <v>43</v>
@@ -8545,33 +9148,39 @@
         <v>6</v>
       </c>
       <c r="Q99" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R99" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>183</v>
+      </c>
+      <c r="S99" s="21">
+        <v>42884</v>
+      </c>
+      <c r="T99" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A100" s="12">
         <v>2</v>
       </c>
       <c r="B100" s="12">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="C100" s="18">
-        <v>27.4</v>
+        <v>140</v>
       </c>
       <c r="D100" s="12">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="E100" s="19">
-        <v>1939</v>
+        <v>3283</v>
       </c>
       <c r="F100" s="12">
         <v>14</v>
       </c>
       <c r="G100" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>0</v>
@@ -8589,13 +9198,13 @@
         <v>2</v>
       </c>
       <c r="M100" s="12">
-        <v>7018</v>
+        <v>7020</v>
       </c>
       <c r="N100" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P100" s="12">
         <v>6</v>
@@ -8604,27 +9213,33 @@
         <v>5</v>
       </c>
       <c r="R100" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>144</v>
+      </c>
+      <c r="S100" s="21">
+        <v>42884</v>
+      </c>
+      <c r="T100" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A101" s="12">
         <v>2</v>
       </c>
       <c r="B101" s="12">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="C101" s="18">
-        <v>39.200000000000003</v>
+        <v>114</v>
       </c>
       <c r="D101" s="12">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="E101" s="19">
-        <v>2546</v>
+        <v>3246</v>
       </c>
       <c r="F101" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G101" s="16">
         <v>4</v>
@@ -8639,51 +9254,57 @@
         <v>78</v>
       </c>
       <c r="K101" s="12">
-        <v>4.24</v>
-      </c>
-      <c r="L101" s="12" t="s">
-        <v>2</v>
+        <v>2.76</v>
+      </c>
+      <c r="L101" s="12">
+        <v>346</v>
       </c>
       <c r="M101" s="12">
-        <v>7019</v>
+        <v>7006</v>
       </c>
       <c r="N101" s="17" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="P101" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q101" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R101" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>99</v>
+      </c>
+      <c r="S101" s="21">
+        <v>42886</v>
+      </c>
+      <c r="T101" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A102" s="12">
         <v>2</v>
       </c>
-      <c r="B102" s="12">
-        <v>477</v>
-      </c>
-      <c r="C102" s="18">
-        <v>164</v>
+      <c r="B102" s="13">
+        <v>44</v>
+      </c>
+      <c r="C102" s="14">
+        <v>41.4</v>
       </c>
       <c r="D102" s="12">
-        <v>350</v>
-      </c>
-      <c r="E102" s="19">
-        <v>2498</v>
-      </c>
-      <c r="F102" s="12">
-        <v>15</v>
-      </c>
-      <c r="G102" s="16">
-        <v>3</v>
+        <v>207</v>
+      </c>
+      <c r="E102" s="15">
+        <v>3749</v>
+      </c>
+      <c r="F102" s="16">
+        <v>21</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>0</v>
@@ -8694,52 +9315,58 @@
       <c r="J102" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K102" s="12">
-        <v>2.2799999999999998</v>
+      <c r="K102" s="16">
+        <v>0.18</v>
       </c>
       <c r="L102" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M102" s="12">
-        <v>7040</v>
+        <v>7078</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P102" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q102" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R102" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R102" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="S102" s="21">
+        <v>42886</v>
+      </c>
+      <c r="T102" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A103" s="12">
         <v>2</v>
       </c>
-      <c r="B103" s="13">
-        <v>481</v>
-      </c>
-      <c r="C103" s="14">
-        <v>89.2</v>
+      <c r="B103" s="12">
+        <v>526</v>
+      </c>
+      <c r="C103" s="18">
+        <v>138</v>
       </c>
       <c r="D103" s="12">
         <v>350</v>
       </c>
-      <c r="E103" s="15">
-        <v>3547</v>
-      </c>
-      <c r="F103" s="16">
-        <v>15</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>208</v>
+      <c r="E103" s="19">
+        <v>3023</v>
+      </c>
+      <c r="F103" s="12">
+        <v>14</v>
+      </c>
+      <c r="G103" s="16">
+        <v>3</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>0</v>
@@ -8750,46 +9377,52 @@
       <c r="J103" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K103" s="16">
-        <v>2.1800000000000002</v>
+      <c r="K103" s="12">
+        <v>2.2000000000000002</v>
       </c>
       <c r="L103" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M103" s="12">
-        <v>7036</v>
+        <v>7017</v>
       </c>
       <c r="N103" s="17" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O103" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P103" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q103" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R103" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>145</v>
+      </c>
+      <c r="S103" s="21">
+        <v>42886</v>
+      </c>
+      <c r="T103" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A104" s="12">
         <v>2</v>
       </c>
       <c r="B104" s="12">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C104" s="18">
-        <v>22.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D104" s="12">
-        <v>111</v>
+        <v>95.5</v>
       </c>
       <c r="E104" s="19">
-        <v>2830</v>
+        <v>3053</v>
       </c>
       <c r="F104" s="12">
         <v>14</v>
@@ -8807,16 +9440,16 @@
         <v>78</v>
       </c>
       <c r="K104" s="12">
-        <v>1.42</v>
+        <v>2.9</v>
       </c>
       <c r="L104" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M104" s="12">
-        <v>7027</v>
+        <v>7023</v>
       </c>
       <c r="N104" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O104" s="12" t="s">
         <v>24</v>
@@ -8828,30 +9461,36 @@
         <v>14</v>
       </c>
       <c r="R104" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>128</v>
+      </c>
+      <c r="S104" s="21">
+        <v>42887</v>
+      </c>
+      <c r="T104" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A105" s="12">
         <v>2</v>
       </c>
       <c r="B105" s="12">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="C105" s="18">
-        <v>99</v>
+        <v>96.4</v>
       </c>
       <c r="D105" s="12">
         <v>350</v>
       </c>
       <c r="E105" s="19">
-        <v>2845</v>
+        <v>3222</v>
       </c>
       <c r="F105" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G105" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>0</v>
@@ -8863,51 +9502,57 @@
         <v>78</v>
       </c>
       <c r="K105" s="12">
-        <v>1.22</v>
-      </c>
-      <c r="L105" s="12">
-        <v>219</v>
+        <v>1.69</v>
+      </c>
+      <c r="L105" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M105" s="12">
-        <v>7009</v>
+        <v>7026</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P105" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q105" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R105" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>158</v>
+      </c>
+      <c r="S105" s="21">
+        <v>42887</v>
+      </c>
+      <c r="T105" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A106" s="12">
         <v>2</v>
       </c>
       <c r="B106" s="12">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="C106" s="18">
-        <v>58.4</v>
+        <v>196</v>
       </c>
       <c r="D106" s="12">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="E106" s="19">
-        <v>2968</v>
+        <v>3270</v>
       </c>
       <c r="F106" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106" s="16" t="s">
         <v>0</v>
@@ -8919,51 +9564,57 @@
         <v>78</v>
       </c>
       <c r="K106" s="12">
-        <v>1.67</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="L106" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M106" s="12">
-        <v>7047</v>
+        <v>7014</v>
       </c>
       <c r="N106" s="17" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="O106" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P106" s="12">
         <v>10</v>
       </c>
       <c r="Q106" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R106" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>118</v>
+      </c>
+      <c r="S106" s="21">
+        <v>42889</v>
+      </c>
+      <c r="T106" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A107" s="12">
         <v>2</v>
       </c>
-      <c r="B107" s="12">
-        <v>485</v>
-      </c>
-      <c r="C107" s="18">
-        <v>19.100000000000001</v>
+      <c r="B107" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="14">
+        <v>69.8</v>
       </c>
       <c r="D107" s="12">
-        <v>95.5</v>
-      </c>
-      <c r="E107" s="19">
-        <v>3053</v>
-      </c>
-      <c r="F107" s="12">
-        <v>14</v>
-      </c>
-      <c r="G107" s="16">
-        <v>4</v>
+        <v>349</v>
+      </c>
+      <c r="E107" s="15">
+        <v>4110</v>
+      </c>
+      <c r="F107" s="16">
+        <v>17</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H107" s="16" t="s">
         <v>0</v>
@@ -8974,20 +9625,20 @@
       <c r="J107" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K107" s="12">
-        <v>2.9</v>
+      <c r="K107" s="16">
+        <v>3.2</v>
       </c>
       <c r="L107" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M107" s="12">
-        <v>7023</v>
+        <v>7062</v>
       </c>
       <c r="N107" s="17" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P107" s="12">
         <v>10</v>
@@ -8996,10 +9647,16 @@
         <v>14</v>
       </c>
       <c r="R107" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>177</v>
+      </c>
+      <c r="S107" s="21">
+        <v>42889</v>
+      </c>
+      <c r="T107" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A108" s="12">
         <v>2</v>
       </c>
@@ -9054,28 +9711,34 @@
       <c r="R108" s="20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="S108" s="21">
+        <v>42889</v>
+      </c>
+      <c r="T108" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A109" s="12">
         <v>2</v>
       </c>
-      <c r="B109" s="12">
-        <v>488</v>
+      <c r="B109" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="C109" s="18">
-        <v>60</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D109" s="12">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E109" s="19">
-        <v>3447</v>
+        <v>2970</v>
       </c>
       <c r="F109" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G109" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H109" s="16" t="s">
         <v>0</v>
@@ -9087,51 +9750,57 @@
         <v>78</v>
       </c>
       <c r="K109" s="12">
-        <v>3.06</v>
+        <v>1.84</v>
       </c>
       <c r="L109" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M109" s="12">
-        <v>7028</v>
+        <v>7058</v>
       </c>
       <c r="N109" s="17" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="O109" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P109" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q109" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R109" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>191</v>
+      </c>
+      <c r="S109" s="21">
+        <v>42889</v>
+      </c>
+      <c r="T109" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A110" s="12">
         <v>2</v>
       </c>
       <c r="B110" s="12">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="C110" s="18">
-        <v>68</v>
+        <v>93.6</v>
       </c>
       <c r="D110" s="12">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E110" s="19">
-        <v>3220</v>
+        <v>3494</v>
       </c>
       <c r="F110" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G110" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H110" s="16" t="s">
         <v>0</v>
@@ -9143,19 +9812,19 @@
         <v>78</v>
       </c>
       <c r="K110" s="12">
-        <v>3.84</v>
-      </c>
-      <c r="L110" s="12">
-        <v>272</v>
+        <v>2.12</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M110" s="12">
-        <v>7038</v>
+        <v>7035</v>
       </c>
       <c r="N110" s="17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O110" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P110" s="12">
         <v>10</v>
@@ -9164,30 +9833,36 @@
         <v>14</v>
       </c>
       <c r="R110" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>152</v>
+      </c>
+      <c r="S110" s="21">
+        <v>42889</v>
+      </c>
+      <c r="T110" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A111" s="12">
         <v>2</v>
       </c>
       <c r="B111" s="12">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="C111" s="18">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D111" s="12">
         <v>350</v>
       </c>
       <c r="E111" s="19">
-        <v>2913</v>
+        <v>3984</v>
       </c>
       <c r="F111" s="12">
         <v>14</v>
       </c>
       <c r="G111" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H111" s="16" t="s">
         <v>0</v>
@@ -9199,51 +9874,57 @@
         <v>78</v>
       </c>
       <c r="K111" s="12">
-        <v>2.3199999999999998</v>
+        <v>5.24</v>
       </c>
       <c r="L111" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M111" s="12">
-        <v>7021</v>
+        <v>7031</v>
       </c>
       <c r="N111" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O111" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P111" s="12">
         <v>10</v>
       </c>
       <c r="Q111" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R111" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="S111" s="21">
+        <v>42890</v>
+      </c>
+      <c r="T111" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" s="12" customFormat="1" ht="17">
+      <c r="A112" s="12">
+        <v>2</v>
+      </c>
+      <c r="B112" s="12">
+        <v>488</v>
+      </c>
+      <c r="C112" s="18">
+        <v>60</v>
+      </c>
+      <c r="D112" s="12">
+        <v>300</v>
+      </c>
+      <c r="E112" s="19">
+        <v>3447</v>
+      </c>
+      <c r="F112" s="12">
         <v>14</v>
       </c>
-      <c r="R111" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" s="12" customFormat="1" ht="17">
-      <c r="A112" s="12">
-        <v>2</v>
-      </c>
-      <c r="B112" s="12">
-        <v>491</v>
-      </c>
-      <c r="C112" s="18">
-        <v>58.4</v>
-      </c>
-      <c r="D112" s="12">
-        <v>292</v>
-      </c>
-      <c r="E112" s="19">
-        <v>3545</v>
-      </c>
-      <c r="F112" s="12">
-        <v>15</v>
-      </c>
       <c r="G112" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H112" s="16" t="s">
         <v>0</v>
@@ -9255,16 +9936,16 @@
         <v>78</v>
       </c>
       <c r="K112" s="12">
-        <v>6.64</v>
+        <v>3.06</v>
       </c>
       <c r="L112" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M112" s="12">
-        <v>7054</v>
+        <v>7028</v>
       </c>
       <c r="N112" s="17" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="O112" s="12" t="s">
         <v>24</v>
@@ -9276,30 +9957,36 @@
         <v>14</v>
       </c>
       <c r="R112" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>130</v>
+      </c>
+      <c r="S112" s="21">
+        <v>42890</v>
+      </c>
+      <c r="T112" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A113" s="12">
         <v>2</v>
       </c>
       <c r="B113" s="12">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="C113" s="18">
-        <v>82.6</v>
+        <v>142</v>
       </c>
       <c r="D113" s="12">
         <v>350</v>
       </c>
       <c r="E113" s="19">
-        <v>2747</v>
+        <v>3093</v>
       </c>
       <c r="F113" s="12">
         <v>15</v>
       </c>
       <c r="G113" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H113" s="16" t="s">
         <v>0</v>
@@ -9311,48 +9998,54 @@
         <v>78</v>
       </c>
       <c r="K113" s="12">
-        <v>2.02</v>
+        <v>5.92</v>
       </c>
       <c r="L113" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M113" s="12">
-        <v>7043</v>
+        <v>7060</v>
       </c>
       <c r="N113" s="17" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="O113" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P113" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q113" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R113" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>138</v>
+      </c>
+      <c r="S113" s="21">
+        <v>42891</v>
+      </c>
+      <c r="T113" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A114" s="12">
         <v>2</v>
       </c>
       <c r="B114" s="12">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="C114" s="18">
-        <v>29.2</v>
+        <v>124</v>
       </c>
       <c r="D114" s="12">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="E114" s="19">
-        <v>2556</v>
+        <v>3055</v>
       </c>
       <c r="F114" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" s="16">
         <v>4</v>
@@ -9367,51 +10060,57 @@
         <v>78</v>
       </c>
       <c r="K114" s="12">
-        <v>1.63</v>
+        <v>2.34</v>
       </c>
       <c r="L114" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M114" s="12">
-        <v>7051</v>
+        <v>7022</v>
       </c>
       <c r="N114" s="17" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="O114" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P114" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q114" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R114" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>119</v>
+      </c>
+      <c r="S114" s="21">
+        <v>42891</v>
+      </c>
+      <c r="T114" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A115" s="12">
         <v>2</v>
       </c>
       <c r="B115" s="12">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="C115" s="18">
-        <v>142</v>
+        <v>77.2</v>
       </c>
       <c r="D115" s="12">
         <v>350</v>
       </c>
       <c r="E115" s="19">
-        <v>3093</v>
+        <v>3547</v>
       </c>
       <c r="F115" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>0</v>
@@ -9423,51 +10122,57 @@
         <v>78</v>
       </c>
       <c r="K115" s="12">
-        <v>5.92</v>
+        <v>3.02</v>
       </c>
       <c r="L115" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M115" s="12">
-        <v>7060</v>
+        <v>7016</v>
       </c>
       <c r="N115" s="17" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="O115" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P115" s="12">
         <v>6</v>
       </c>
       <c r="Q115" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R115" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>120</v>
+      </c>
+      <c r="S115" s="21">
+        <v>42891</v>
+      </c>
+      <c r="T115" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A116" s="12">
         <v>2</v>
       </c>
-      <c r="B116" s="13">
-        <v>521</v>
-      </c>
-      <c r="C116" s="14">
-        <v>66.599999999999994</v>
+      <c r="B116" s="12">
+        <v>39</v>
+      </c>
+      <c r="C116" s="18">
+        <v>89.8</v>
       </c>
       <c r="D116" s="12">
-        <v>333</v>
-      </c>
-      <c r="E116" s="15">
-        <v>4133</v>
-      </c>
-      <c r="F116" s="16">
-        <v>19</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>208</v>
+        <v>350</v>
+      </c>
+      <c r="E116" s="19">
+        <v>2458</v>
+      </c>
+      <c r="F116" s="12">
+        <v>15</v>
+      </c>
+      <c r="G116" s="16">
+        <v>5</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>0</v>
@@ -9478,17 +10183,17 @@
       <c r="J116" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K116" s="16">
-        <v>8.66</v>
+      <c r="K116" s="12">
+        <v>2.04</v>
       </c>
       <c r="L116" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M116" s="12">
-        <v>7071</v>
+        <v>7056</v>
       </c>
       <c r="N116" s="17" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="O116" s="12" t="s">
         <v>24</v>
@@ -9497,30 +10202,36 @@
         <v>6</v>
       </c>
       <c r="Q116" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R116" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>14</v>
+      </c>
+      <c r="R116" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S116" s="21">
+        <v>42892</v>
+      </c>
+      <c r="T116" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A117" s="12">
         <v>2</v>
       </c>
       <c r="B117" s="12">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="C117" s="18">
-        <v>32.200000000000003</v>
+        <v>68</v>
       </c>
       <c r="D117" s="12">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="E117" s="19">
-        <v>2469</v>
+        <v>3220</v>
       </c>
       <c r="F117" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G117" s="16">
         <v>3</v>
@@ -9535,51 +10246,57 @@
         <v>78</v>
       </c>
       <c r="K117" s="12">
-        <v>2.42</v>
-      </c>
-      <c r="L117" s="12" t="s">
-        <v>2</v>
+        <v>3.84</v>
+      </c>
+      <c r="L117" s="12">
+        <v>272</v>
       </c>
       <c r="M117" s="12">
-        <v>7002</v>
+        <v>7038</v>
       </c>
       <c r="N117" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P117" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q117" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R117" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>131</v>
+      </c>
+      <c r="S117" s="21">
+        <v>42892</v>
+      </c>
+      <c r="T117" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A118" s="12">
         <v>2</v>
       </c>
       <c r="B118" s="12">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="C118" s="18">
-        <v>71.400000000000006</v>
+        <v>27.4</v>
       </c>
       <c r="D118" s="12">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="E118" s="19">
-        <v>2733</v>
+        <v>1939</v>
       </c>
       <c r="F118" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G118" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>0</v>
@@ -9591,19 +10308,19 @@
         <v>78</v>
       </c>
       <c r="K118" s="12">
-        <v>2.16</v>
-      </c>
-      <c r="L118" s="12">
-        <v>276</v>
+        <v>2.44</v>
+      </c>
+      <c r="L118" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M118" s="12">
-        <v>7005</v>
+        <v>7018</v>
       </c>
       <c r="N118" s="17" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="O118" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P118" s="12">
         <v>6</v>
@@ -9612,30 +10329,36 @@
         <v>5</v>
       </c>
       <c r="R118" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>121</v>
+      </c>
+      <c r="S118" s="21">
+        <v>42892</v>
+      </c>
+      <c r="T118" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A119" s="12">
         <v>2</v>
       </c>
-      <c r="B119" s="12">
-        <v>524</v>
+      <c r="B119" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="C119" s="18">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D119" s="12">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="E119" s="19">
-        <v>3144</v>
+        <v>3181</v>
       </c>
       <c r="F119" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G119" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>0</v>
@@ -9647,19 +10370,19 @@
         <v>78</v>
       </c>
       <c r="K119" s="12">
-        <v>3.24</v>
-      </c>
-      <c r="L119" s="12" t="s">
-        <v>2</v>
+        <v>3.36</v>
+      </c>
+      <c r="L119" s="12">
+        <v>285</v>
       </c>
       <c r="M119" s="12">
-        <v>7013</v>
+        <v>7010</v>
       </c>
       <c r="N119" s="17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O119" s="12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P119" s="12">
         <v>6</v>
@@ -9668,30 +10391,36 @@
         <v>5</v>
       </c>
       <c r="R119" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>174</v>
+      </c>
+      <c r="S119" s="21">
+        <v>42893</v>
+      </c>
+      <c r="T119" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A120" s="12">
         <v>2</v>
       </c>
       <c r="B120" s="12">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="C120" s="18">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D120" s="12">
         <v>350</v>
       </c>
       <c r="E120" s="19">
-        <v>3283</v>
+        <v>3101</v>
       </c>
       <c r="F120" s="12">
         <v>14</v>
       </c>
       <c r="G120" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>0</v>
@@ -9703,19 +10432,19 @@
         <v>78</v>
       </c>
       <c r="K120" s="12">
-        <v>2.44</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="L120" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M120" s="12">
-        <v>7020</v>
+        <v>7034</v>
       </c>
       <c r="N120" s="17" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="O120" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P120" s="12">
         <v>6</v>
@@ -9724,27 +10453,33 @@
         <v>5</v>
       </c>
       <c r="R120" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>166</v>
+      </c>
+      <c r="S120" s="21">
+        <v>42893</v>
+      </c>
+      <c r="T120" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A121" s="12">
         <v>2</v>
       </c>
       <c r="B121" s="12">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="C121" s="18">
-        <v>138</v>
+        <v>60.2</v>
       </c>
       <c r="D121" s="12">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="E121" s="19">
-        <v>3023</v>
+        <v>3799</v>
       </c>
       <c r="F121" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G121" s="16">
         <v>3</v>
@@ -9759,51 +10494,57 @@
         <v>78</v>
       </c>
       <c r="K121" s="12">
-        <v>2.2000000000000002</v>
+        <v>1.36</v>
       </c>
       <c r="L121" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M121" s="12">
-        <v>7017</v>
+        <v>7039</v>
       </c>
       <c r="N121" s="17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O121" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P121" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q121" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R121" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>114</v>
+      </c>
+      <c r="S121" s="21">
+        <v>42893</v>
+      </c>
+      <c r="T121" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A122" s="12">
         <v>2</v>
       </c>
       <c r="B122" s="12">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="C122" s="18">
-        <v>124</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D122" s="12">
-        <v>350</v>
+        <v>196</v>
       </c>
       <c r="E122" s="19">
-        <v>3100</v>
+        <v>2546</v>
       </c>
       <c r="F122" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122" s="16" t="s">
         <v>0</v>
@@ -9815,19 +10556,19 @@
         <v>78</v>
       </c>
       <c r="K122" s="12">
-        <v>1.42</v>
-      </c>
-      <c r="L122" s="12">
-        <v>243</v>
+        <v>4.24</v>
+      </c>
+      <c r="L122" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M122" s="12">
-        <v>7042</v>
+        <v>7019</v>
       </c>
       <c r="N122" s="17" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O122" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P122" s="12">
         <v>6</v>
@@ -9836,30 +10577,36 @@
         <v>5</v>
       </c>
       <c r="R122" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>122</v>
+      </c>
+      <c r="S122" s="21">
+        <v>42896</v>
+      </c>
+      <c r="T122" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A123" s="12">
         <v>2</v>
       </c>
       <c r="B123" s="12">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C123" s="18">
-        <v>87.6</v>
+        <v>186</v>
       </c>
       <c r="D123" s="12">
         <v>350</v>
       </c>
       <c r="E123" s="19">
-        <v>3299</v>
+        <v>2588</v>
       </c>
       <c r="F123" s="12">
         <v>14</v>
       </c>
       <c r="G123" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H123" s="16" t="s">
         <v>0</v>
@@ -9871,51 +10618,57 @@
         <v>78</v>
       </c>
       <c r="K123" s="12">
-        <v>4.4800000000000004</v>
+        <v>3.28</v>
       </c>
       <c r="L123" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M123" s="12">
-        <v>7029</v>
+        <v>7025</v>
       </c>
       <c r="N123" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="O123" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P123" s="12">
         <v>6</v>
       </c>
       <c r="Q123" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R123" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>159</v>
+      </c>
+      <c r="S123" s="21">
+        <v>42896</v>
+      </c>
+      <c r="T123" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A124" s="12">
         <v>2</v>
       </c>
-      <c r="B124" s="12">
-        <v>529</v>
-      </c>
-      <c r="C124" s="18">
-        <v>56.8</v>
+      <c r="B124" s="13">
+        <v>533</v>
+      </c>
+      <c r="C124" s="14">
+        <v>6.52</v>
       </c>
       <c r="D124" s="12">
-        <v>284</v>
-      </c>
-      <c r="E124" s="19">
-        <v>4097</v>
-      </c>
-      <c r="F124" s="12">
-        <v>15</v>
-      </c>
-      <c r="G124" s="16">
-        <v>5</v>
+        <v>32.599999999999994</v>
+      </c>
+      <c r="E124" s="15">
+        <v>3752</v>
+      </c>
+      <c r="F124" s="16">
+        <v>17</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H124" s="16" t="s">
         <v>0</v>
@@ -9926,52 +10679,58 @@
       <c r="J124" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K124" s="12">
-        <v>2.86</v>
+      <c r="K124" s="16">
+        <v>5.36</v>
       </c>
       <c r="L124" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M124" s="12">
-        <v>7057</v>
+        <v>7063</v>
       </c>
       <c r="N124" s="17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O124" s="12" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P124" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q124" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R124" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>154</v>
+      </c>
+      <c r="S124" s="21">
+        <v>42896</v>
+      </c>
+      <c r="T124" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A125" s="12">
         <v>2</v>
       </c>
-      <c r="B125" s="12">
-        <v>531</v>
-      </c>
-      <c r="C125" s="18">
-        <v>95.4</v>
+      <c r="B125" s="13">
+        <v>565</v>
+      </c>
+      <c r="C125" s="14">
+        <v>31.2</v>
       </c>
       <c r="D125" s="12">
-        <v>350</v>
-      </c>
-      <c r="E125" s="19">
-        <v>2434</v>
-      </c>
-      <c r="F125" s="12">
-        <v>15</v>
-      </c>
-      <c r="G125" s="16">
-        <v>4</v>
+        <v>156</v>
+      </c>
+      <c r="E125" s="15">
+        <v>4011</v>
+      </c>
+      <c r="F125" s="16">
+        <v>19</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H125" s="16" t="s">
         <v>0</v>
@@ -9982,52 +10741,58 @@
       <c r="J125" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K125" s="12">
-        <v>2.1</v>
+      <c r="K125" s="16">
+        <v>3.2</v>
       </c>
       <c r="L125" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M125" s="12">
-        <v>7048</v>
+        <v>7067</v>
       </c>
       <c r="N125" s="17" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="O125" s="12" t="s">
         <v>150</v>
       </c>
       <c r="P125" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q125" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R125" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>168</v>
+      </c>
+      <c r="S125" s="21">
+        <v>42896</v>
+      </c>
+      <c r="T125" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A126" s="12">
         <v>2</v>
       </c>
       <c r="B126" s="12">
-        <v>532</v>
+        <v>413</v>
       </c>
       <c r="C126" s="18">
-        <v>93.6</v>
+        <v>130</v>
       </c>
       <c r="D126" s="12">
         <v>350</v>
       </c>
       <c r="E126" s="19">
-        <v>3494</v>
+        <v>2715</v>
       </c>
       <c r="F126" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G126" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H126" s="16" t="s">
         <v>0</v>
@@ -10039,51 +10804,57 @@
         <v>78</v>
       </c>
       <c r="K126" s="12">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="L126" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M126" s="12">
-        <v>7035</v>
+        <v>7041</v>
       </c>
       <c r="N126" s="17" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="O126" s="12" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="P126" s="12">
         <v>10</v>
       </c>
       <c r="Q126" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R126" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="S126" s="21">
+        <v>42896</v>
+      </c>
+      <c r="T126" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="17">
+      <c r="A127" s="12">
+        <v>2</v>
+      </c>
+      <c r="B127" s="12">
+        <v>421</v>
+      </c>
+      <c r="C127" s="18">
+        <v>57.6</v>
+      </c>
+      <c r="D127" s="12">
+        <v>288</v>
+      </c>
+      <c r="E127" s="19">
+        <v>2504</v>
+      </c>
+      <c r="F127" s="12">
         <v>14</v>
       </c>
-      <c r="R126" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" s="12" customFormat="1" ht="17">
-      <c r="A127" s="12">
-        <v>2</v>
-      </c>
-      <c r="B127" s="13">
-        <v>533</v>
-      </c>
-      <c r="C127" s="14">
-        <v>6.52</v>
-      </c>
-      <c r="D127" s="12">
-        <v>32.599999999999994</v>
-      </c>
-      <c r="E127" s="15">
-        <v>3752</v>
-      </c>
-      <c r="F127" s="16">
-        <v>17</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>208</v>
+      <c r="G127" s="16">
+        <v>4</v>
       </c>
       <c r="H127" s="16" t="s">
         <v>0</v>
@@ -10094,52 +10865,58 @@
       <c r="J127" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K127" s="16">
-        <v>5.36</v>
+      <c r="K127" s="12">
+        <v>1.63</v>
       </c>
       <c r="L127" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M127" s="12">
-        <v>7063</v>
+        <v>7024</v>
       </c>
       <c r="N127" s="17" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="O127" s="12" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="P127" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q127" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R127" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>107</v>
+      </c>
+      <c r="S127" s="21">
+        <v>42898</v>
+      </c>
+      <c r="T127" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A128" s="12">
         <v>2</v>
       </c>
       <c r="B128" s="12">
-        <v>541</v>
+        <v>414</v>
       </c>
       <c r="C128" s="18">
-        <v>44.4</v>
+        <v>168</v>
       </c>
       <c r="D128" s="12">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="E128" s="19">
-        <v>2387</v>
+        <v>2951</v>
       </c>
       <c r="F128" s="12">
         <v>15</v>
       </c>
       <c r="G128" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H128" s="16" t="s">
         <v>0</v>
@@ -10151,19 +10928,19 @@
         <v>78</v>
       </c>
       <c r="K128" s="12">
-        <v>1.4</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="L128" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M128" s="12">
-        <v>7044</v>
+        <v>7053</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="O128" s="12" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="P128" s="12">
         <v>10</v>
@@ -10172,27 +10949,33 @@
         <v>5</v>
       </c>
       <c r="R128" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>106</v>
+      </c>
+      <c r="S128" s="21">
+        <v>42898</v>
+      </c>
+      <c r="T128" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A129" s="12">
         <v>2</v>
       </c>
       <c r="B129" s="12">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C129" s="18">
-        <v>32.799999999999997</v>
+        <v>124</v>
       </c>
       <c r="D129" s="12">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="E129" s="19">
-        <v>2999</v>
+        <v>3100</v>
       </c>
       <c r="F129" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G129" s="16">
         <v>3</v>
@@ -10207,51 +10990,57 @@
         <v>78</v>
       </c>
       <c r="K129" s="12">
-        <v>2.2200000000000002</v>
+        <v>1.42</v>
       </c>
       <c r="L129" s="12">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="M129" s="12">
-        <v>7004</v>
+        <v>7042</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O129" s="12" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P129" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q129" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R129" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>146</v>
+      </c>
+      <c r="S129" s="21">
+        <v>42900</v>
+      </c>
+      <c r="T129" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A130" s="12">
         <v>2</v>
       </c>
       <c r="B130" s="12">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="C130" s="18">
-        <v>162</v>
+        <v>29.2</v>
       </c>
       <c r="D130" s="12">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="E130" s="19">
-        <v>3984</v>
+        <v>2556</v>
       </c>
       <c r="F130" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G130" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H130" s="16" t="s">
         <v>0</v>
@@ -10263,19 +11052,19 @@
         <v>78</v>
       </c>
       <c r="K130" s="12">
-        <v>5.24</v>
+        <v>1.63</v>
       </c>
       <c r="L130" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M130" s="12">
-        <v>7031</v>
+        <v>7051</v>
       </c>
       <c r="N130" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O130" s="12" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P130" s="12">
         <v>10</v>
@@ -10284,30 +11073,36 @@
         <v>5</v>
       </c>
       <c r="R130" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>136</v>
+      </c>
+      <c r="S130" s="21">
+        <v>42900</v>
+      </c>
+      <c r="T130" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A131" s="12">
         <v>2</v>
       </c>
       <c r="B131" s="12">
-        <v>551</v>
+        <v>444</v>
       </c>
       <c r="C131" s="18">
-        <v>96.4</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="D131" s="12">
         <v>350</v>
       </c>
       <c r="E131" s="19">
-        <v>3222</v>
+        <v>2871</v>
       </c>
       <c r="F131" s="12">
         <v>14</v>
       </c>
       <c r="G131" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>0</v>
@@ -10319,36 +11114,42 @@
         <v>78</v>
       </c>
       <c r="K131" s="12">
-        <v>1.69</v>
+        <v>4.08</v>
       </c>
       <c r="L131" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M131" s="12">
-        <v>7026</v>
+        <v>7037</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="O131" s="12" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="P131" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q131" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R131" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>115</v>
+      </c>
+      <c r="S131" s="21">
+        <v>42900</v>
+      </c>
+      <c r="T131" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A132" s="12">
         <v>2</v>
       </c>
       <c r="B132" s="12">
-        <v>553</v>
+        <v>490</v>
       </c>
       <c r="C132" s="18">
         <v>186</v>
@@ -10357,7 +11158,7 @@
         <v>350</v>
       </c>
       <c r="E132" s="19">
-        <v>2588</v>
+        <v>2913</v>
       </c>
       <c r="F132" s="12">
         <v>14</v>
@@ -10375,51 +11176,57 @@
         <v>78</v>
       </c>
       <c r="K132" s="12">
-        <v>3.28</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="L132" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M132" s="12">
-        <v>7025</v>
+        <v>7021</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="O132" s="12" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P132" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q132" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R132" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>132</v>
+      </c>
+      <c r="S132" s="21">
+        <v>42900</v>
+      </c>
+      <c r="T132" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A133" s="12">
         <v>2</v>
       </c>
       <c r="B133" s="12">
-        <v>554</v>
+        <v>445</v>
       </c>
       <c r="C133" s="18">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D133" s="12">
         <v>350</v>
       </c>
       <c r="E133" s="19">
-        <v>3198</v>
+        <v>3349</v>
       </c>
       <c r="F133" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G133" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>0</v>
@@ -10431,51 +11238,57 @@
         <v>78</v>
       </c>
       <c r="K133" s="12">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="L133" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M133" s="12">
-        <v>7015</v>
+        <v>7049</v>
       </c>
       <c r="N133" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O133" s="12" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="P133" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q133" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R133" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>116</v>
+      </c>
+      <c r="S133" s="21">
+        <v>42901</v>
+      </c>
+      <c r="T133" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A134" s="12">
         <v>2</v>
       </c>
-      <c r="B134" s="13">
-        <v>561</v>
-      </c>
-      <c r="C134" s="14">
-        <v>28</v>
+      <c r="B134" s="12">
+        <v>491</v>
+      </c>
+      <c r="C134" s="18">
+        <v>58.4</v>
       </c>
       <c r="D134" s="12">
-        <v>140</v>
-      </c>
-      <c r="E134" s="15">
-        <v>4021</v>
-      </c>
-      <c r="F134" s="16">
-        <v>21</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>208</v>
+        <v>292</v>
+      </c>
+      <c r="E134" s="19">
+        <v>3545</v>
+      </c>
+      <c r="F134" s="12">
+        <v>15</v>
+      </c>
+      <c r="G134" s="16">
+        <v>5</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>0</v>
@@ -10486,52 +11299,58 @@
       <c r="J134" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K134" s="16">
-        <v>4.0999999999999996</v>
+      <c r="K134" s="12">
+        <v>6.64</v>
       </c>
       <c r="L134" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M134" s="12">
-        <v>7066</v>
+        <v>7054</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="O134" s="12" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P134" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q134" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R134" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>134</v>
+      </c>
+      <c r="S134" s="21">
+        <v>42901</v>
+      </c>
+      <c r="T134" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A135" s="12">
         <v>2</v>
       </c>
       <c r="B135" s="12">
-        <v>562</v>
-      </c>
-      <c r="C135" s="12">
-        <v>126</v>
+        <v>528</v>
+      </c>
+      <c r="C135" s="18">
+        <v>87.6</v>
       </c>
       <c r="D135" s="12">
         <v>350</v>
       </c>
       <c r="E135" s="19">
-        <v>8075</v>
-      </c>
-      <c r="F135" s="16">
-        <v>23</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>208</v>
+        <v>3299</v>
+      </c>
+      <c r="F135" s="12">
+        <v>14</v>
+      </c>
+      <c r="G135" s="16">
+        <v>5</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>0</v>
@@ -10542,20 +11361,20 @@
       <c r="J135" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K135" s="16">
-        <v>9.8800000000000008</v>
+      <c r="K135" s="12">
+        <v>4.4800000000000004</v>
       </c>
       <c r="L135" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M135" s="12">
-        <v>7064</v>
+        <v>7029</v>
       </c>
       <c r="N135" s="17" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="O135" s="12" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P135" s="12">
         <v>6</v>
@@ -10564,27 +11383,33 @@
         <v>5</v>
       </c>
       <c r="R135" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>147</v>
+      </c>
+      <c r="S135" s="21">
+        <v>42901</v>
+      </c>
+      <c r="T135" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A136" s="12">
         <v>2</v>
       </c>
       <c r="B136" s="13">
-        <v>563</v>
+        <v>37</v>
       </c>
       <c r="C136" s="14">
-        <v>47</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D136" s="12">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="E136" s="15">
-        <v>3161</v>
+        <v>3350</v>
       </c>
       <c r="F136" s="16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>208</v>
@@ -10599,48 +11424,54 @@
         <v>78</v>
       </c>
       <c r="K136" s="16">
-        <v>4.66</v>
+        <v>5.46</v>
       </c>
       <c r="L136" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M136" s="12">
-        <v>7045</v>
+        <v>7076</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="O136" s="12" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P136" s="12">
         <v>6</v>
       </c>
       <c r="Q136" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R136" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>14</v>
+      </c>
+      <c r="R136" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S136" s="21">
+        <v>42901</v>
+      </c>
+      <c r="T136" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A137" s="12">
         <v>2</v>
       </c>
       <c r="B137" s="12">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="C137" s="18">
-        <v>152</v>
+        <v>56.8</v>
       </c>
       <c r="D137" s="12">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="E137" s="19">
-        <v>3101</v>
+        <v>4097</v>
       </c>
       <c r="F137" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G137" s="16">
         <v>5</v>
@@ -10655,19 +11486,19 @@
         <v>78</v>
       </c>
       <c r="K137" s="12">
-        <v>2.2400000000000002</v>
+        <v>2.86</v>
       </c>
       <c r="L137" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M137" s="12">
-        <v>7034</v>
+        <v>7057</v>
       </c>
       <c r="N137" s="17" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="O137" s="12" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P137" s="12">
         <v>6</v>
@@ -10676,27 +11507,33 @@
         <v>5</v>
       </c>
       <c r="R137" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>149</v>
+      </c>
+      <c r="S137" s="21">
+        <v>42903</v>
+      </c>
+      <c r="T137" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A138" s="12">
         <v>2</v>
       </c>
       <c r="B138" s="13">
-        <v>565</v>
+        <v>432</v>
       </c>
       <c r="C138" s="14">
-        <v>31.2</v>
+        <v>74</v>
       </c>
       <c r="D138" s="12">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="E138" s="15">
-        <v>4011</v>
+        <v>3961</v>
       </c>
       <c r="F138" s="16">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>208</v>
@@ -10711,19 +11548,19 @@
         <v>78</v>
       </c>
       <c r="K138" s="16">
-        <v>3.2</v>
+        <v>6.28</v>
       </c>
       <c r="L138" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M138" s="12">
-        <v>7067</v>
+        <v>7065</v>
       </c>
       <c r="N138" s="17" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="O138" s="12" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="P138" s="12">
         <v>6</v>
@@ -10731,31 +11568,37 @@
       <c r="Q138" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R138" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" s="12" customFormat="1" ht="17">
+      <c r="R138" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S138" s="21">
+        <v>42903</v>
+      </c>
+      <c r="T138" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A139" s="12">
         <v>2</v>
       </c>
-      <c r="B139" s="13">
-        <v>571</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>169</v>
+      <c r="B139" s="12">
+        <v>434</v>
+      </c>
+      <c r="C139" s="18">
+        <v>162</v>
       </c>
       <c r="D139" s="12">
-        <v>0</v>
-      </c>
-      <c r="E139" s="15">
-        <v>4588</v>
-      </c>
-      <c r="F139" s="16">
-        <v>23</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>208</v>
+        <v>350</v>
+      </c>
+      <c r="E139" s="19">
+        <v>3580</v>
+      </c>
+      <c r="F139" s="12">
+        <v>15</v>
+      </c>
+      <c r="G139" s="16">
+        <v>5</v>
       </c>
       <c r="H139" s="16" t="s">
         <v>0</v>
@@ -10766,49 +11609,55 @@
       <c r="J139" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K139" s="16">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="L139" s="12">
-        <v>287</v>
+      <c r="K139" s="12">
+        <v>5.58</v>
+      </c>
+      <c r="L139" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M139" s="12">
-        <v>7072</v>
+        <v>7059</v>
       </c>
       <c r="N139" s="17" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="O139" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="P139" s="12" t="s">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="P139" s="12">
+        <v>6</v>
       </c>
       <c r="Q139" s="12" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="R139" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>111</v>
+      </c>
+      <c r="S139" s="21">
+        <v>42905</v>
+      </c>
+      <c r="T139" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A140" s="12">
         <v>2</v>
       </c>
-      <c r="B140" s="12" t="s">
-        <v>173</v>
+      <c r="B140" s="12">
+        <v>403</v>
       </c>
       <c r="C140" s="18">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="D140" s="12">
         <v>350</v>
       </c>
       <c r="E140" s="19">
-        <v>3181</v>
+        <v>3065</v>
       </c>
       <c r="F140" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G140" s="16">
         <v>5</v>
@@ -10823,51 +11672,57 @@
         <v>78</v>
       </c>
       <c r="K140" s="12">
-        <v>3.36</v>
-      </c>
-      <c r="L140" s="12">
-        <v>285</v>
+        <v>4.16</v>
+      </c>
+      <c r="L140" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M140" s="12">
-        <v>7010</v>
+        <v>7032</v>
       </c>
       <c r="N140" s="17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O140" s="12" t="s">
         <v>4</v>
       </c>
       <c r="P140" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q140" s="12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R140" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>100</v>
+      </c>
+      <c r="S140" s="21">
+        <v>42905</v>
+      </c>
+      <c r="T140" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A141" s="12">
         <v>2</v>
       </c>
-      <c r="B141" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C141" s="14">
-        <v>69.8</v>
+      <c r="B141" s="12">
+        <v>477</v>
+      </c>
+      <c r="C141" s="18">
+        <v>164</v>
       </c>
       <c r="D141" s="12">
-        <v>349</v>
-      </c>
-      <c r="E141" s="15">
-        <v>4110</v>
-      </c>
-      <c r="F141" s="16">
-        <v>17</v>
-      </c>
-      <c r="G141" s="12" t="s">
-        <v>208</v>
+        <v>350</v>
+      </c>
+      <c r="E141" s="19">
+        <v>2498</v>
+      </c>
+      <c r="F141" s="12">
+        <v>15</v>
+      </c>
+      <c r="G141" s="16">
+        <v>3</v>
       </c>
       <c r="H141" s="16" t="s">
         <v>0</v>
@@ -10878,52 +11733,58 @@
       <c r="J141" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K141" s="16">
-        <v>3.2</v>
+      <c r="K141" s="12">
+        <v>2.2799999999999998</v>
       </c>
       <c r="L141" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M141" s="12">
-        <v>7062</v>
+        <v>7040</v>
       </c>
       <c r="N141" s="17" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="O141" s="12" t="s">
         <v>43</v>
       </c>
       <c r="P141" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q141" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R141" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>123</v>
+      </c>
+      <c r="S141" s="21">
+        <v>42905</v>
+      </c>
+      <c r="T141" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A142" s="12">
         <v>2</v>
       </c>
-      <c r="B142" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C142" s="18">
-        <v>97.2</v>
+      <c r="B142" s="13">
+        <v>34</v>
+      </c>
+      <c r="C142" s="14">
+        <v>104</v>
       </c>
       <c r="D142" s="12">
         <v>350</v>
       </c>
-      <c r="E142" s="19">
-        <v>2770</v>
-      </c>
-      <c r="F142" s="12">
-        <v>16</v>
-      </c>
-      <c r="G142" s="16">
-        <v>3</v>
+      <c r="E142" s="15">
+        <v>3764</v>
+      </c>
+      <c r="F142" s="16">
+        <v>19</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H142" s="16" t="s">
         <v>0</v>
@@ -10934,52 +11795,58 @@
       <c r="J142" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K142" s="12">
-        <v>2.68</v>
-      </c>
-      <c r="L142" s="12">
-        <v>294</v>
+      <c r="K142" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="L142" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="M142" s="12">
-        <v>7003</v>
+        <v>7073</v>
       </c>
       <c r="N142" s="17" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="O142" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P142" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q142" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R142" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>14</v>
+      </c>
+      <c r="R142" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S142" s="21">
+        <v>42905</v>
+      </c>
+      <c r="T142" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A143" s="12">
         <v>2</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>180</v>
+      <c r="B143" s="12">
+        <v>554</v>
       </c>
       <c r="C143" s="18">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="D143" s="12">
         <v>350</v>
       </c>
       <c r="E143" s="19">
-        <v>2122</v>
+        <v>3198</v>
       </c>
       <c r="F143" s="12">
         <v>14</v>
       </c>
       <c r="G143" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H143" s="16" t="s">
         <v>0</v>
@@ -10991,19 +11858,19 @@
         <v>78</v>
       </c>
       <c r="K143" s="12">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="L143" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M143" s="12">
-        <v>7033</v>
+        <v>7015</v>
       </c>
       <c r="N143" s="17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O143" s="12" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="P143" s="12">
         <v>6</v>
@@ -11012,24 +11879,30 @@
         <v>14</v>
       </c>
       <c r="R143" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>160</v>
+      </c>
+      <c r="S143" s="21">
+        <v>42906</v>
+      </c>
+      <c r="T143" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A144" s="12">
         <v>2</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>182</v>
+      <c r="B144" s="12">
+        <v>45</v>
       </c>
       <c r="C144" s="12">
-        <v>106</v>
+        <v>25.1</v>
       </c>
       <c r="D144" s="12">
-        <v>350</v>
+        <v>125.5</v>
       </c>
       <c r="E144" s="19">
-        <v>4608</v>
+        <v>7706</v>
       </c>
       <c r="F144" s="16">
         <v>19</v>
@@ -11047,51 +11920,57 @@
         <v>78</v>
       </c>
       <c r="K144" s="16">
-        <v>8.4600000000000009</v>
+        <v>4.8</v>
       </c>
       <c r="L144" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M144" s="12">
-        <v>7001</v>
+        <v>7077</v>
       </c>
       <c r="N144" s="17" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O144" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P144" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q144" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R144" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" s="12" customFormat="1" ht="17">
+        <v>5</v>
+      </c>
+      <c r="R144" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S144" s="21">
+        <v>42910</v>
+      </c>
+      <c r="T144" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A145" s="12">
         <v>2</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>184</v>
+      <c r="B145" s="12">
+        <v>404</v>
       </c>
       <c r="C145" s="18">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D145" s="12">
         <v>350</v>
       </c>
       <c r="E145" s="19">
-        <v>2470</v>
+        <v>2712</v>
       </c>
       <c r="F145" s="12">
         <v>15</v>
       </c>
       <c r="G145" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H145" s="16" t="s">
         <v>0</v>
@@ -11103,51 +11982,57 @@
         <v>78</v>
       </c>
       <c r="K145" s="12">
-        <v>5.2</v>
+        <v>2.92</v>
       </c>
       <c r="L145" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M145" s="12">
-        <v>7055</v>
+        <v>7046</v>
       </c>
       <c r="N145" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="O145" s="12" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="P145" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q145" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R145" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S145" s="21">
+        <v>42915</v>
+      </c>
+      <c r="T145" s="12">
         <v>5</v>
       </c>
-      <c r="R145" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" s="12" customFormat="1" ht="17">
+    </row>
+    <row r="146" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A146" s="12">
         <v>2</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>187</v>
+      <c r="B146" s="12">
+        <v>492</v>
       </c>
       <c r="C146" s="18">
-        <v>97</v>
+        <v>82.6</v>
       </c>
       <c r="D146" s="12">
         <v>350</v>
       </c>
       <c r="E146" s="19">
-        <v>2718</v>
+        <v>2747</v>
       </c>
       <c r="F146" s="12">
         <v>15</v>
       </c>
       <c r="G146" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H146" s="16" t="s">
         <v>0</v>
@@ -11159,51 +12044,57 @@
         <v>78</v>
       </c>
       <c r="K146" s="12">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="L146" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M146" s="12">
-        <v>7052</v>
+        <v>7043</v>
       </c>
       <c r="N146" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O146" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P146" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q146" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R146" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="S146" s="21">
+        <v>42922</v>
+      </c>
+      <c r="T146" s="12">
         <v>5</v>
       </c>
-      <c r="R146" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" s="12" customFormat="1" ht="17">
+    </row>
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="17">
       <c r="A147" s="12">
         <v>2</v>
       </c>
-      <c r="B147" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C147" s="18">
-        <v>74.599999999999994</v>
+      <c r="B147" s="13">
+        <v>571</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="D147" s="12">
-        <v>350</v>
-      </c>
-      <c r="E147" s="19">
-        <v>2970</v>
-      </c>
-      <c r="F147" s="12">
-        <v>15</v>
-      </c>
-      <c r="G147" s="16">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E147" s="15">
+        <v>4588</v>
+      </c>
+      <c r="F147" s="16">
+        <v>23</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H147" s="16" t="s">
         <v>0</v>
@@ -11214,32 +12105,41 @@
       <c r="J147" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K147" s="12">
-        <v>1.84</v>
-      </c>
-      <c r="L147" s="12" t="s">
-        <v>2</v>
+      <c r="K147" s="16">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L147" s="12">
+        <v>287</v>
       </c>
       <c r="M147" s="12">
-        <v>7058</v>
+        <v>7072</v>
       </c>
       <c r="N147" s="17" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O147" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="P147" s="12">
-        <v>6</v>
+        <v>171</v>
+      </c>
+      <c r="P147" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="Q147" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R147" s="20" t="s">
-        <v>191</v>
+        <v>172</v>
+      </c>
+      <c r="R147" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="S147" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="T147" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A71:S147">
+    <sortCondition ref="R71:R147"/>
+  </sortState>
   <conditionalFormatting sqref="B2:B70">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
